--- a/biology/Zoologie/Hylobates/Hylobates.xlsx
+++ b/biology/Zoologie/Hylobates/Hylobates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylobates est un genre de primates de la famille des hylobatidés et fait partie des hominoïdés. Ce genre rassemble sept des dix-sept espèces de gibbons.
-Au moins certaines de ces espèces jouent un rôle important de dissémination de graines en forêt (zoochorie)[1], et donc pour la régénération forestière.
+Au moins certaines de ces espèces jouent un rôle important de dissémination de graines en forêt (zoochorie), et donc pour la régénération forestière.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Très territoriaux, les gibbons défendent leurs frontières à l'aide de gestes et de cris. Les hurlements, qui peuvent être entendus de très loin, sont émis par un couple mâle-femelle, les jeunes se joignant parfois à leurs parents. 
 La femelle met au monde un seul petit au bout de 7 mois. Le gibbon peut vivre plus de 43 ans en captivité et 40 ans dans la nature.
@@ -544,7 +558,9 @@
           <t>État, pressions, menaces sur les populations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces espèces sont menacées par la déforestation, la fragmentation des forêts, la chasse et le braconnage.
 Les cris que l'on entend de loin font de ces singes des proies facilement localisables par les braconniers qui les chassent pour leur commerce ou pour la médecine traditionnelle. 
@@ -577,7 +593,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces se rencontrent dans les forêts d'Indochine et des Îles de la Sonde.
 </t>
@@ -608,24 +626,26 @@
           <t>Noms vernaculaires et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste alphabétique des noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms. Les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Gibbon agile - Hylobates agilis[2],[3]
-Gibbon argenté - Hylobates moloch[4]
-Gibbon à bonnet - Hylobates pileatus[2],[3]
-Gibbon cendré  - Hylobates moloch[2],[3] et Hylobates lar[2]
-Gibbon de Java - voir Gibbon argenté[4]
-Gibbon de Kloss - Hylobates klossii[2]
-Gibbon lar - voir Gibbon à mains blanches[2],[5],[3]
-Gibbon lar à bonnet - voir Gibbon à bonnet[3]
-Gibbon à mains blanches - Hylobates lar[2],[5],[3]
-Gibbon à mains noires - voir Gibbon agile[3]
-Gibbon moloch - voir Gibbon argenté[4]
-Gibbon de Müller - Hylobates muelleri[2],[3]
-Lar - voir Gibbon à mains blanches[5]
-Siamang de Kloss - voir Hylobates klossii[2]
+Gibbon agile - Hylobates agilis,
+Gibbon argenté - Hylobates moloch
+Gibbon à bonnet - Hylobates pileatus,
+Gibbon cendré  - Hylobates moloch, et Hylobates lar
+Gibbon de Java - voir Gibbon argenté
+Gibbon de Kloss - Hylobates klossii
+Gibbon lar - voir Gibbon à mains blanches
+Gibbon lar à bonnet - voir Gibbon à bonnet
+Gibbon à mains blanches - Hylobates lar
+Gibbon à mains noires - voir Gibbon agile
+Gibbon moloch - voir Gibbon argenté
+Gibbon de Müller - Hylobates muelleri,
+Lar - voir Gibbon à mains blanches
+Siamang de Kloss - voir Hylobates klossii
 etc.</t>
         </is>
       </c>
@@ -654,11 +674,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La classification des Hylobates a été revue d'après les nouvelles méthodes d'investigation. 
-Liste des espèces actuelles
-Selon ITIS[6]:
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification des Hylobates a été revue d'après les nouvelles méthodes d'investigation. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hylobates</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hylobates</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Selon ITIS:
 Hylobates abbotti Kloss, 1929
 Hylobates agilis F. Cuvier, 1821 - Gibbon agile
 Hylobates albibarbis Lyon, 1911
@@ -668,7 +726,7 @@
 Hylobates moloch (Audebert, 1798) - Gibbon cendré
 Hylobates muelleri Martin, 1841 - Gibbon de Müller
 Hylobates pileatus (Gray, 1861) - Gibbon à bonnet
-Selon Mammal Species of the World[7]:
+Selon Mammal Species of the World:
 Hylobates agilis F. Cuvier, 1821 - Gibbon agile
 Hylobates albibarbis Lyon, 1911
 Hylobates klossii (Miller, 1903) - Siamang De Kloss
@@ -676,8 +734,47 @@
 Hylobates moloch (Audebert, 1798) - Gibbon cendré
 Hylobates muelleri Martin, 1841 - Gibbon de Müller
 Hylobates pileatus (Gray, 1861) - Gibbon à bonnet
-Ancien Hylobates
-Classés actuellement dans un genre séparé : parmi les gibbons, on trouve le siamang, le gibbon à mains blanches ou gibbon lar. Le siamang, qui est le plus grand des 13 espèces,  se distingue par deux doigts fusionnés sur chaque main, ce qui lui donne son nom de genre et d'espèce, Symphalangus et syndactylus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hylobates</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hylobates</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ancien Hylobates</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Classés actuellement dans un genre séparé : parmi les gibbons, on trouve le siamang, le gibbon à mains blanches ou gibbon lar. Le siamang, qui est le plus grand des 13 espèces,  se distingue par deux doigts fusionnés sur chaque main, ce qui lui donne son nom de genre et d'espèce, Symphalangus et syndactylus.
 Nomascus concolor (Harlan, 1826) — Gibbon noir
 Nomascus leucogenys Ogilby, 1840 — Gibbon à joues pâles
 Hoolock hoolock (Harlan, 1834) ou Houlock
@@ -686,33 +783,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Hylobates</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hylobates</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Phylogénie au sein des gibbons</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des espèces actuelles de gibbons d'après Springer et al., 2012[8] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des espèces actuelles de gibbons d'après Springer et al., 2012 :
 </t>
         </is>
       </c>
